--- a/sentHisLarge.xlsx
+++ b/sentHisLarge.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tianyiz/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nozomi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E445CA-4E5D-475C-974D-8607C6A323C8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13980" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10392" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pos" sheetId="2" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>Sentiment</t>
   </si>
@@ -45,9 +46,6 @@
     <t>Ratio</t>
   </si>
   <si>
-    <t>Positive</t>
-  </si>
-  <si>
     <t>2015-03-01 to 2015-03-08</t>
   </si>
   <si>
@@ -91,9 +89,6 @@
   </si>
   <si>
     <t>2015-09-09 to 2015-09-25</t>
-  </si>
-  <si>
-    <t>Negative</t>
   </si>
   <si>
     <t>2015-03-23 to 2015-03-30</t>
@@ -123,7 +118,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -165,12 +160,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -209,7 +207,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -255,7 +252,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Positive</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -311,7 +308,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -390,46 +386,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.415178571428571</c:v>
+                  <c:v>0.41517857142857101</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.350877192982456</c:v>
+                  <c:v>0.35087719298245601</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.368421052631578</c:v>
+                  <c:v>0.36842105263157798</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.37037037037037</c:v>
+                  <c:v>0.37037037037037002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.285714285714285</c:v>
+                  <c:v>0.28571428571428498</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.428571428571428</c:v>
+                  <c:v>0.42857142857142799</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.555555555555555</c:v>
+                  <c:v>0.55555555555555503</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.558823529411764</c:v>
+                  <c:v>0.55882352941176405</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.444444444444444</c:v>
+                  <c:v>0.44444444444444398</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.494845360824742</c:v>
+                  <c:v>0.49484536082474201</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.308943089430894</c:v>
+                  <c:v>0.30894308943089399</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.523809523809523</c:v>
+                  <c:v>0.52380952380952295</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.25</c:v>
@@ -437,6 +433,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9EC8-431F-98F4-D6842D04FF34}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -447,7 +448,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Negative</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -503,7 +504,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -582,53 +582,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.419642857142857</c:v>
+                  <c:v>0.41964285714285698</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.508771929824561</c:v>
+                  <c:v>0.50877192982456099</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.458333333333333</c:v>
+                  <c:v>0.45833333333333298</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.571428571428571</c:v>
+                  <c:v>0.57142857142857095</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.341463414634146</c:v>
+                  <c:v>0.34146341463414598</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.575757575757575</c:v>
+                  <c:v>0.57575757575757502</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.328767123287671</c:v>
+                  <c:v>0.32876712328767099</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.444444444444444</c:v>
+                  <c:v>0.44444444444444398</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.402061855670103</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.44927536231884</c:v>
+                  <c:v>0.44927536231884002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.573333333333333</c:v>
+                  <c:v>0.57333333333333303</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.333333333333333</c:v>
+                  <c:v>0.33333333333333298</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9EC8-431F-98F4-D6842D04FF34}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="outEnd"/>
@@ -761,7 +766,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1367,7 +1371,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="99" workbookViewId="0" zoomToFit="1"/>
@@ -1384,7 +1388,13 @@
     <xdr:ext cx="8671919" cy="6285859"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
@@ -1666,19 +1676,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1695,12 +1705,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
       </c>
       <c r="C2">
         <v>93</v>
@@ -1715,12 +1725,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>5</v>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>45</v>
@@ -1735,12 +1745,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>5</v>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>20</v>
@@ -1755,12 +1765,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>7</v>
@@ -1775,12 +1785,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>10</v>
@@ -1795,12 +1805,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>5</v>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>10</v>
@@ -1815,12 +1825,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>5</v>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>18</v>
@@ -1835,12 +1845,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>5</v>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <v>20</v>
@@ -1855,12 +1865,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>5</v>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -1875,12 +1885,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>5</v>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11">
         <v>38</v>
@@ -1895,12 +1905,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>5</v>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12">
         <v>28</v>
@@ -1915,12 +1925,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>5</v>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13">
         <v>48</v>
@@ -1935,12 +1945,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>5</v>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14">
         <v>38</v>
@@ -1955,12 +1965,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>5</v>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15">
         <v>11</v>
@@ -1975,12 +1985,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>5</v>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1995,12 +2005,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>21</v>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17">
         <v>94</v>
@@ -2015,12 +2025,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>21</v>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18">
         <v>40</v>
@@ -2035,12 +2045,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>21</v>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19">
         <v>29</v>
@@ -2055,12 +2065,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>21</v>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C20">
         <v>11</v>
@@ -2075,12 +2085,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
         <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>23</v>
       </c>
       <c r="C21">
         <v>11</v>
@@ -2095,12 +2105,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C22">
         <v>20</v>
@@ -2115,12 +2125,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>21</v>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C23">
         <v>14</v>
@@ -2135,12 +2145,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>21</v>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C24">
         <v>14</v>
@@ -2155,12 +2165,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>21</v>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C25">
         <v>19</v>
@@ -2175,12 +2185,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>21</v>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C26">
         <v>24</v>
@@ -2195,12 +2205,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>21</v>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C27">
         <v>28</v>
@@ -2215,12 +2225,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>21</v>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C28">
         <v>39</v>
@@ -2235,12 +2245,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>21</v>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C29">
         <v>31</v>
@@ -2255,12 +2265,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>21</v>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C30">
         <v>43</v>
@@ -2275,12 +2285,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>21</v>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C31">
         <v>1</v>
